--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sfrp1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Fzd6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>132.230667535448</v>
+        <v>0.1932423333333333</v>
       </c>
       <c r="H2">
-        <v>132.230667535448</v>
+        <v>0.579727</v>
       </c>
       <c r="I2">
-        <v>0.9839007859918957</v>
+        <v>0.001345733247764284</v>
       </c>
       <c r="J2">
-        <v>0.9839007859918957</v>
+        <v>0.001352641749279063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N2">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O2">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P2">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q2">
-        <v>1953.807238319184</v>
+        <v>3.222807194758777</v>
       </c>
       <c r="R2">
-        <v>1953.807238319184</v>
+        <v>29.005264752829</v>
       </c>
       <c r="S2">
-        <v>0.9374866407222691</v>
+        <v>0.001283182611032859</v>
       </c>
       <c r="T2">
-        <v>0.9374866407222691</v>
+        <v>0.001295651807867517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>132.230667535448</v>
+        <v>0.1932423333333333</v>
       </c>
       <c r="H3">
-        <v>132.230667535448</v>
+        <v>0.579727</v>
       </c>
       <c r="I3">
-        <v>0.9839007859918957</v>
+        <v>0.001345733247764284</v>
       </c>
       <c r="J3">
-        <v>0.9839007859918957</v>
+        <v>0.001352641749279063</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N3">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O3">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P3">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q3">
-        <v>71.85397003393059</v>
+        <v>0.1110697026876667</v>
       </c>
       <c r="R3">
-        <v>71.85397003393059</v>
+        <v>0.999627324189</v>
       </c>
       <c r="S3">
-        <v>0.03447737098549103</v>
+        <v>4.422315779026027E-05</v>
       </c>
       <c r="T3">
-        <v>0.03447737098549103</v>
+        <v>4.465289183933147E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>132.230667535448</v>
+        <v>0.1932423333333333</v>
       </c>
       <c r="H4">
-        <v>132.230667535448</v>
+        <v>0.579727</v>
       </c>
       <c r="I4">
-        <v>0.9839007859918957</v>
+        <v>0.001345733247764284</v>
       </c>
       <c r="J4">
-        <v>0.9839007859918957</v>
+        <v>0.001352641749279063</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N4">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O4">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P4">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q4">
-        <v>24.87732089766982</v>
+        <v>0.04603080690583333</v>
       </c>
       <c r="R4">
-        <v>24.87732089766982</v>
+        <v>0.276184841435</v>
       </c>
       <c r="S4">
-        <v>0.01193677428413558</v>
+        <v>1.832747894116501E-05</v>
       </c>
       <c r="T4">
-        <v>0.01193677428413558</v>
+        <v>1.233704957221464E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16364276296573</v>
+        <v>141.1826756666667</v>
       </c>
       <c r="H5">
-        <v>2.16364276296573</v>
+        <v>423.548027</v>
       </c>
       <c r="I5">
-        <v>0.01609921400810424</v>
+        <v>0.9831915055860169</v>
       </c>
       <c r="J5">
-        <v>0.01609921400810424</v>
+        <v>0.9882388506055022</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N5">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O5">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P5">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q5">
-        <v>31.96944377737569</v>
+        <v>2354.580050164103</v>
       </c>
       <c r="R5">
-        <v>31.96944377737569</v>
+        <v>21191.22045147693</v>
       </c>
       <c r="S5">
-        <v>0.0153397560746037</v>
+        <v>0.93749206641001</v>
       </c>
       <c r="T5">
-        <v>0.0153397560746037</v>
+        <v>0.946602050450074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.16364276296573</v>
+        <v>141.1826756666667</v>
       </c>
       <c r="H6">
-        <v>2.16364276296573</v>
+        <v>423.548027</v>
       </c>
       <c r="I6">
-        <v>0.01609921400810424</v>
+        <v>0.9831915055860169</v>
       </c>
       <c r="J6">
-        <v>0.01609921400810424</v>
+        <v>0.9882388506055022</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N6">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O6">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P6">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q6">
-        <v>1.17572061876337</v>
+        <v>81.14742531025432</v>
       </c>
       <c r="R6">
-        <v>1.17572061876337</v>
+        <v>730.326827792289</v>
       </c>
       <c r="S6">
-        <v>0.0005641407973596188</v>
+        <v>0.03230939947557111</v>
       </c>
       <c r="T6">
-        <v>0.0005641407973596188</v>
+        <v>0.03262336278695532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>141.1826756666667</v>
+      </c>
+      <c r="H7">
+        <v>423.548027</v>
+      </c>
+      <c r="I7">
+        <v>0.9831915055860169</v>
+      </c>
+      <c r="J7">
+        <v>0.9882388506055022</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2382025</v>
+      </c>
+      <c r="N7">
+        <v>0.476405</v>
+      </c>
+      <c r="O7">
+        <v>0.01361895380946642</v>
+      </c>
+      <c r="P7">
+        <v>0.009120707370440172</v>
+      </c>
+      <c r="Q7">
+        <v>33.63006630048916</v>
+      </c>
+      <c r="R7">
+        <v>201.780397802935</v>
+      </c>
+      <c r="S7">
+        <v>0.01339003970043571</v>
+      </c>
+      <c r="T7">
+        <v>0.009013437368472928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.020178</v>
+      </c>
+      <c r="H8">
+        <v>0.060534</v>
+      </c>
+      <c r="I8">
+        <v>0.0001405189277369576</v>
+      </c>
+      <c r="J8">
+        <v>0.0001412403004359963</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.67754233333333</v>
+      </c>
+      <c r="N8">
+        <v>50.03262699999999</v>
+      </c>
+      <c r="O8">
+        <v>0.9535192900707901</v>
+      </c>
+      <c r="P8">
+        <v>0.9578676752791928</v>
+      </c>
+      <c r="Q8">
+        <v>0.3365194492019999</v>
+      </c>
+      <c r="R8">
+        <v>3.028675042817999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001339875082172524</v>
+      </c>
+      <c r="T8">
+        <v>0.0001352895182343625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.020178</v>
+      </c>
+      <c r="H9">
+        <v>0.060534</v>
+      </c>
+      <c r="I9">
+        <v>0.0001405189277369576</v>
+      </c>
+      <c r="J9">
+        <v>0.0001412403004359963</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.574769</v>
+      </c>
+      <c r="N9">
+        <v>1.724307</v>
+      </c>
+      <c r="O9">
+        <v>0.0328617561197435</v>
+      </c>
+      <c r="P9">
+        <v>0.03301161735036698</v>
+      </c>
+      <c r="Q9">
+        <v>0.011597688882</v>
+      </c>
+      <c r="R9">
+        <v>0.104379199938</v>
+      </c>
+      <c r="S9">
+        <v>4.617698733499759E-06</v>
+      </c>
+      <c r="T9">
+        <v>4.662570752443981E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.020178</v>
+      </c>
+      <c r="H10">
+        <v>0.060534</v>
+      </c>
+      <c r="I10">
+        <v>0.0001405189277369576</v>
+      </c>
+      <c r="J10">
+        <v>0.0001412403004359963</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2382025</v>
+      </c>
+      <c r="N10">
+        <v>0.476405</v>
+      </c>
+      <c r="O10">
+        <v>0.01361895380946642</v>
+      </c>
+      <c r="P10">
+        <v>0.009120707370440172</v>
+      </c>
+      <c r="Q10">
+        <v>0.004806450045</v>
+      </c>
+      <c r="R10">
+        <v>0.02883870027</v>
+      </c>
+      <c r="S10">
+        <v>1.913720786205374E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.288211449189776E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.2002175</v>
+      </c>
+      <c r="H11">
+        <v>4.400435</v>
+      </c>
+      <c r="I11">
+        <v>0.01532224223848198</v>
+      </c>
+      <c r="J11">
+        <v>0.01026726734478266</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.67754233333333</v>
+      </c>
+      <c r="N11">
+        <v>50.03262699999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9535192900707901</v>
+      </c>
+      <c r="P11">
+        <v>0.9578676752791928</v>
+      </c>
+      <c r="Q11">
+        <v>36.69422049879083</v>
+      </c>
+      <c r="R11">
+        <v>220.165322992745</v>
+      </c>
+      <c r="S11">
+        <v>0.01461005354153001</v>
+      </c>
+      <c r="T11">
+        <v>0.009834683503016934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.16364276296573</v>
-      </c>
-      <c r="H7">
-        <v>2.16364276296573</v>
-      </c>
-      <c r="I7">
-        <v>0.01609921400810424</v>
-      </c>
-      <c r="J7">
-        <v>0.01609921400810424</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.188135788477365</v>
-      </c>
-      <c r="N7">
-        <v>0.188135788477365</v>
-      </c>
-      <c r="O7">
-        <v>0.0121320914202765</v>
-      </c>
-      <c r="P7">
-        <v>0.0121320914202765</v>
-      </c>
-      <c r="Q7">
-        <v>0.4070586371939022</v>
-      </c>
-      <c r="R7">
-        <v>0.4070586371939022</v>
-      </c>
-      <c r="S7">
-        <v>0.0001953171361409166</v>
-      </c>
-      <c r="T7">
-        <v>0.0001953171361409166</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.2002175</v>
+      </c>
+      <c r="H12">
+        <v>4.400435</v>
+      </c>
+      <c r="I12">
+        <v>0.01532224223848198</v>
+      </c>
+      <c r="J12">
+        <v>0.01026726734478266</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.574769</v>
+      </c>
+      <c r="N12">
+        <v>1.724307</v>
+      </c>
+      <c r="O12">
+        <v>0.0328617561197435</v>
+      </c>
+      <c r="P12">
+        <v>0.03301161735036698</v>
+      </c>
+      <c r="Q12">
+        <v>1.2646168122575</v>
+      </c>
+      <c r="R12">
+        <v>7.587700873545</v>
+      </c>
+      <c r="S12">
+        <v>0.0005035157876486276</v>
+      </c>
+      <c r="T12">
+        <v>0.0003389391008198835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.2002175</v>
+      </c>
+      <c r="H13">
+        <v>4.400435</v>
+      </c>
+      <c r="I13">
+        <v>0.01532224223848198</v>
+      </c>
+      <c r="J13">
+        <v>0.01026726734478266</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2382025</v>
+      </c>
+      <c r="N13">
+        <v>0.476405</v>
+      </c>
+      <c r="O13">
+        <v>0.01361895380946642</v>
+      </c>
+      <c r="P13">
+        <v>0.009120707370440172</v>
+      </c>
+      <c r="Q13">
+        <v>0.52409730904375</v>
+      </c>
+      <c r="R13">
+        <v>2.096389236175</v>
+      </c>
+      <c r="S13">
+        <v>0.0002086729093033414</v>
+      </c>
+      <c r="T13">
+        <v>9.364474094583888E-05</v>
       </c>
     </row>
   </sheetData>
